--- a/project/formValidations.xlsx
+++ b/project/formValidations.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="2" r:id="rId2"/>
+    <sheet name="Tareas pendientes" sheetId="3" r:id="rId3"/>
+    <sheet name="npm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>ejs</t>
   </si>
@@ -96,6 +99,73 @@
   </si>
   <si>
     <t>email_student</t>
+  </si>
+  <si>
+    <t>Asignar tokens</t>
+  </si>
+  <si>
+    <t>Administrador general</t>
+  </si>
+  <si>
+    <t>Administrador institución</t>
+  </si>
+  <si>
+    <t>El select de compañía sólo lo puede ver el administrador general. 
+Para las instituciones se filta directamente por la institución que esté logueada</t>
+  </si>
+  <si>
+    <t>Token asignation</t>
+  </si>
+  <si>
+    <t>Que filtre por la compañía logueada</t>
+  </si>
+  <si>
+    <t>Si el logueado es el adm general, que muestre todo</t>
+  </si>
+  <si>
+    <t>Si el logueado es el adm general, que permita seleccionar la empresa para ver tokens</t>
+  </si>
+  <si>
+    <t>Si entra una compañía que no muestra la instuitución</t>
+  </si>
+  <si>
+    <t>Si entra el adm general que muestre la institución</t>
+  </si>
+  <si>
+    <t>Ordenar por compañía los datos para que los vea bien el administrador general</t>
+  </si>
+  <si>
+    <t>si se completa uno, se tienen que completar todos</t>
+  </si>
+  <si>
+    <t>si se completa uno, se tienen que completar todos &amp;&amp; el email no puede existir en la base</t>
+  </si>
+  <si>
+    <t>Que cuando se generen los usuarios se cargue automaticamente la empresa que está logueada en el id_companies del usuario</t>
+  </si>
+  <si>
+    <t>Encriptar la constraseña cuando se guarda el nuevo usuario</t>
+  </si>
+  <si>
+    <t>Si no hay tokens pendientes de asignacion que ponga que no hay</t>
+  </si>
+  <si>
+    <t>npm install node-popup</t>
+  </si>
+  <si>
+    <t>Mensaje de que se asignaron correctamente</t>
+  </si>
+  <si>
+    <t>CourseCReation</t>
+  </si>
+  <si>
+    <t>Mensaje de que el curso se creo correctamente</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>cartel de generación de la comisión con el nro de comisión</t>
   </si>
 </sst>
 </file>
@@ -160,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,6 +239,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,11 +532,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,7 +545,7 @@
     <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.81640625" customWidth="1"/>
     <col min="4" max="4" width="41.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
@@ -561,7 +642,9 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
@@ -574,7 +657,9 @@
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -587,7 +672,9 @@
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -599,7 +686,9 @@
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
@@ -611,7 +700,9 @@
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
@@ -623,7 +714,9 @@
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
@@ -635,7 +728,9 @@
       <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
@@ -647,6 +742,9 @@
       <c r="D15" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
@@ -657,6 +755,186 @@
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="70.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="8"/>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/project/formValidations.xlsx
+++ b/project/formValidations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>ejs</t>
   </si>
@@ -166,6 +166,21 @@
   </si>
   <si>
     <t>cartel de generación de la comisión con el nro de comisión</t>
+  </si>
+  <si>
+    <t>que solo se admita .xls en archivo addStudent</t>
+  </si>
+  <si>
+    <t>que solo se admita .xls en archivo assignTokens</t>
+  </si>
+  <si>
+    <t>si el curso al que se le quiere asignar students no tiene comisiones, decirle que primero cree la comision</t>
+  </si>
+  <si>
+    <t>validad cantidad de tokens de student a la hora de asignar students</t>
+  </si>
+  <si>
+    <t>que lea el xls en funcion de la extension</t>
   </si>
 </sst>
 </file>
@@ -809,10 +824,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,6 +929,31 @@
       </c>
       <c r="C13" s="5" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
